--- a/metagenome/data_figures/filtered_data_1percent_change/sample_metadata.xlsx
+++ b/metagenome/data_figures/filtered_data_1percent_change/sample_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\MI_Analysis\metagenome\data_figures\filtered_data_1%\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\MI_Analysis\metagenome\data_figures\filtered_data_1percent_change\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B5E91F-8C49-403C-84EE-EBB8040EB7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7132C85B-7843-411D-B61C-1702806189E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
   <si>
     <t>Group</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>CON44</t>
-  </si>
-  <si>
-    <t>MI30</t>
   </si>
   <si>
     <t>CON27</t>
@@ -667,17 +664,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A72" sqref="A72:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -741,7 +738,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -749,7 +746,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -789,7 +786,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -837,7 +834,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -869,7 +866,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -885,7 +882,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -925,7 +922,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -933,7 +930,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -973,7 +970,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -1013,7 +1010,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -1141,7 +1138,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -1149,7 +1146,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -1213,7 +1210,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -1245,7 +1242,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -1253,7 +1250,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -1261,7 +1258,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -1269,7 +1266,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -1277,7 +1274,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -1285,7 +1282,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -1293,7 +1290,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -1301,7 +1298,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -1309,7 +1306,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -1317,7 +1314,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -1325,7 +1322,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -1333,7 +1330,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -1341,7 +1338,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -1349,23 +1346,15 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C86">
-    <sortCondition ref="A1:A86"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C85">
+    <sortCondition ref="A1:A85"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
